--- a/artifacts/pending copy/Commentary.xlsx
+++ b/artifacts/pending copy/Commentary.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian.riddle/GitHub/ksys_loader_start/artifacts/pending/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian.riddle/GitHub/ksys_loader_start/artifacts/pending copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Commentary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Culture</t>
   </si>
@@ -41,13 +41,49 @@
     <t>Commentary</t>
   </si>
   <si>
-    <t>Fund Overview</t>
-  </si>
-  <si>
-    <t>This is the en-GB Fund Overview Commentary</t>
-  </si>
-  <si>
-    <t>IE00B45CGH72</t>
+    <t>The Fund seeks to increase the value of its assets over the medium term by investing in bonds and/or other debt instruments denominated in EUR and issued or guaranteed by a member state of the Europe Union.It is actively managed and as such may invest in securities that are not included in the index which is Barclays Euro Aggregate Treasury 500MM (RI).</t>
+  </si>
+  <si>
+    <t>LU0111548326</t>
+  </si>
+  <si>
+    <t>The outcome of the Brexit referenum continued to exert pressure on the 10-year Bund, which reached -0.2% on 6 July. Expectations of a Fed fund rate hike and the circumstances surrounding changes to the ECB's securities purchasing programme caused the Bund to fluctuate from -0.2% to +0.05%. On the peripheral markets, Spanish securities (-28 bp to 0.88%) outperformed their Italian counterparts (-7 bp to 1.19%). Despite Mariano Rajoy's difficulties in forming a Spanish government, the uncertainty associated with Italy's constituational referenum on 4 December is inciting greater caution from investors on Italian bonds. The portfolio benefitted from this market backdrop, in particular thanks to our overexposure to BBB-rated countries. We reduced this overexposure, partly because of the political uncertainty generated bt the Italian referendum and partly in light of the solid performance from Spanish bonds. We also reduced modified duration due to low interest rates and out expectation that a more expansive monetary policy would only have a very slight positive impact on economic growth. We tool profits on German regional bonds.</t>
+  </si>
+  <si>
+    <t>investment_objective</t>
+  </si>
+  <si>
+    <t>manager_comment</t>
+  </si>
+  <si>
+    <t>The Fund seeks to increase the value of its assets over the medium term by investing in shares of small European companies.It is actively managed and as such may invest in securities that are not included in the index which is MSCI Europe Small Caps NR).</t>
+  </si>
+  <si>
+    <t>LU0111549480</t>
+  </si>
+  <si>
+    <t>The Fund seeks primarily to provide regular income in the form of dividend and, to a lesser extent, to generate capital growth by investing directly on all types of asset classes in these limits (government bonds: 0%-100%, money market instrument: 0%-100%, equities: 0%-60%, cash: 0%-49%, high yield bonds: 0%-40%, real estate securities: 0%-40%, investment grade bonds: 0%-40%, emerging market debt: 0%-30%, convertible bonds: 0%-20%, floating rate securities: 0%-20%, structured debt securities: 0%-20%, commodities: 0%-10%).The investment team will determine the asset class mix based on its medium and short terms views on the economic cycle and also the sustainability of the dividends.</t>
+  </si>
+  <si>
+    <t>LU0212178016</t>
+  </si>
+  <si>
+    <t>LU1056594234</t>
+  </si>
+  <si>
+    <t>Ce FCP cherche à obtenir à moyen terme une valorisation du capital par la gestion d'un portefeuille constitué de valeurs internationales, liées au thème de l'eau et qui tout en présentant des perspectives de croissance et de valorisation attrayantes, respectent les 10 principes du Pacte mondial des Nations Unies (Le Pacte Mondial est une initiative des Nations Unies, qui vise à associer les entreprises multinationales, sur la base d'un engagement volontaire, à la promotion du développement durable).</t>
+  </si>
+  <si>
+    <t>FR0010668145</t>
+  </si>
+  <si>
+    <t>fr-FR</t>
+  </si>
+  <si>
+    <t>FR0010668146</t>
+  </si>
+  <si>
+    <t>Soutenu par les sociétés du secteur des infrastructures hydrauliques, notamment Xylem (États-Unis) et Kubota (Japon), qui ont bénéficié d’une dynamique commerciale porteuse, et par une rotation plus globale en faveur des valeurs cycliques, le fonds a signé une excellente performance trimestrielle. Le secteur de l’approvisionnement en eau, traditionnellement défensif, s’est en revanche avéré pénalisant, American Water Works et Aqua America souffrant de la rotation du marché. Nous continuons de viser un portefeuille équilibré, qui privilégie les valeurs défensives et les titres cycliques de qualité. Grâce au raffermissement de la croissance des résultats sur les douze prochains mois, la valorisation du portefeuille reste attrayante par rapport au marché en termes historiques.</t>
   </si>
 </sst>
 </file>
@@ -362,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -386,16 +422,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
